--- a/Solina/Solcast vs WeatherMap/Results_Production_Solina_Solcast.xlsx
+++ b/Solina/Solcast vs WeatherMap/Results_Production_Solina_Solcast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mynexte-my.sharepoint.com/personal/andrei_ionita_mynexte_com/Documents/Desktop/ML/Forecast_app/Solina/Solcast vs WeatherMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_1E37C6BA31DFED3EEB2A8293E41BFA73A983C40D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56CF29C6-AE2C-4723-930A-27A1EE46D0D5}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_1E37C6BA31DFED3EEB2A8293E41BFA73A983C40D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA96FB00-80BD-4DC9-B1B6-D89AD3725A10}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -71,7 +71,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,7 +379,7 @@
   <dimension ref="A1:C145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
